--- a/public/MasterList.xlsx
+++ b/public/MasterList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nath\Documents\Enrollment System\enrollment-system\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF5634E-F13D-4EF3-B53A-CFB8BBDDA331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8A150-E197-4300-97FB-021278A55B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D4D17EF-1027-41AA-8328-024764592F4A}"/>
   </bookViews>
@@ -163,12 +163,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -176,6 +170,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,147 +620,147 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="10" width="27.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="10" width="27.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
